--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3022211.345532455</v>
+        <v>3027150.608381486</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800624</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>251.6811090875127</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>108.4249867772597</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>27.75921992324395</v>
       </c>
       <c r="D4" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>188.2946850496443</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>102.7659541175183</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.46389722690856</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>1.332975795529679</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>229.1219939010653</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>117.1501684881975</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>200.3642448233089</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498007</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,7 +2298,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896923</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113201</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>57.64843562452403</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056604</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>26.97444673954876</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>97.24018360678657</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206857</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>222.2179949548722</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151917</v>
+        <v>203.8435192151927</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002187</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3954,13 +3954,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151927</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4188,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>139.1537278750046</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.892406545185</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.892406545185</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="D2" t="n">
-        <v>1127.626707938434</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="E2" t="n">
-        <v>741.8384553401902</v>
+        <v>726.1301324348167</v>
       </c>
       <c r="F2" t="n">
-        <v>330.8525505505826</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>316.9291464891735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545185</v>
+        <v>1498.518225097183</v>
       </c>
     </row>
     <row r="3">
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>81.98259790444925</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>263.631062734689</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>837.1179892781315</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>251.0851341348652</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>251.0851341348652</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>244.1396333856617</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2538.316407490616</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2538.316407490616</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2284.554622128708</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1953.491734785137</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1600.723079515023</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1227.257321253943</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y5" t="n">
-        <v>837.1179892781315</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4667,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>713.5189870075369</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>713.5189870075369</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X7" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1387.069036214947</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>382.4841419818663</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>55.28942201786919</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1618.505393690771</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1618.505393690771</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y8" t="n">
-        <v>1387.069036214947</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5044,10 +5044,10 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683721</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1380.582767034471</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1091.454128248029</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>836.769640042142</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W13" t="n">
-        <v>836.769640042142</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X13" t="n">
-        <v>836.769640042142</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y13" t="n">
-        <v>615.9770608986119</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,7 +5281,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L15" t="n">
-        <v>1196.088769018224</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M15" t="n">
-        <v>1503.408902298185</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.271529962218</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,22 +5460,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765184</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706316</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
         <v>97.21709146028584</v>
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,31 +5691,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5731,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5937,13 +5937,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
         <v>614.6238123952637</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,28 +5974,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805494</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.3840174432676</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C28" t="n">
-        <v>155.4478345153607</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799448</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471278</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974676</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980073</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585755</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557912</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557912</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473464</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526297</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765277</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706409</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336803</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170374</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735073</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>822.148054050878</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>822.148054050878</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1471.669354659368</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.787631771462</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>1111.565224087839</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>822.148054050878</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>822.148054050878</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>822.148054050878</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609673</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550805</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905256</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="35">
@@ -6925,43 +6925,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7332,16 +7332,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,19 +7350,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
         <v>869.3083006011506</v>
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7569,16 +7569,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,25 +7587,25 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7806,16 +7806,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,16 +7824,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T46" t="n">
         <v>1158.436939387592</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127836</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>277.6717966208073</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208051</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208051</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208051</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298005</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208051</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298005</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298005</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298005</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>104.3973925701918</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>51.77339850051914</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338588</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>90.96703739368832</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318337673</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.98990566424405</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>154.8974597170414</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>64.30500338171885</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338466</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338452</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338466</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>82.3938331833846</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325104</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="F2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="J2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803342</v>
       </c>
       <c r="K2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="L2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="N2" t="n">
         <v>625646.495580334</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925935</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26429,7 +26429,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26441,25 +26441,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143897</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172768.4996377501</v>
+        <v>-172768.4996377499</v>
       </c>
       <c r="C6" t="n">
-        <v>417199.3795767945</v>
+        <v>417199.3795767942</v>
       </c>
       <c r="D6" t="n">
         <v>417199.3795767944</v>
       </c>
       <c r="E6" t="n">
-        <v>-7521.127726439187</v>
+        <v>-6643.995592689928</v>
       </c>
       <c r="F6" t="n">
-        <v>517638.9087504569</v>
+        <v>518516.0408842064</v>
       </c>
       <c r="G6" t="n">
-        <v>517638.9087504569</v>
+        <v>518516.0408842062</v>
       </c>
       <c r="H6" t="n">
-        <v>517638.908750457</v>
+        <v>518516.0408842064</v>
       </c>
       <c r="I6" t="n">
-        <v>517638.9087504569</v>
+        <v>518516.0408842065</v>
       </c>
       <c r="J6" t="n">
-        <v>341215.6895578639</v>
+        <v>342092.8216916127</v>
       </c>
       <c r="K6" t="n">
-        <v>517638.9087504568</v>
+        <v>518516.0408842062</v>
       </c>
       <c r="L6" t="n">
-        <v>517638.908750457</v>
+        <v>518516.0408842064</v>
       </c>
       <c r="M6" t="n">
-        <v>382837.8935166195</v>
+        <v>383715.0256503694</v>
       </c>
       <c r="N6" t="n">
-        <v>517638.9087504566</v>
+        <v>518516.0408842061</v>
       </c>
       <c r="O6" t="n">
-        <v>517638.9087504568</v>
+        <v>518516.0408842064</v>
       </c>
       <c r="P6" t="n">
-        <v>517638.9087504566</v>
+        <v>518516.0408842065</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
     </row>
     <row r="4">
@@ -26813,13 +26813,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545563</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990167</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>155.1949366541988</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>215.4977859870974</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.4876011753839</v>
       </c>
       <c r="D4" t="n">
-        <v>46.83478528866331</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>225.4894849711507</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>71.6497586914532</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27779,16 +27779,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.65885272800574</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724685</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>150.5983404493316</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>157.1159447549883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866297</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-2.081599168337153e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>8.10681891986557e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>526.9295015768315</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>484.76521155233</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799368</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.76521155233</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>484.76521155233</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.76521155233</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
